--- a/new_accidentes.xlsx
+++ b/new_accidentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ripley\Documents\2. Mining Engineering\5. Safety\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB6691-1CB9-4C70-8EC5-09772F315557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CED6488-770A-4B2C-9A4E-CB7159C40244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19410" yWindow="2550" windowWidth="16290" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>Las Bambas</t>
-  </si>
-  <si>
     <t>GEOTEC</t>
   </si>
   <si>
@@ -2917,6 +2914,9 @@
   </si>
   <si>
     <t>ARRASTRA DÍAS?</t>
+  </si>
+  <si>
+    <t>Mina Luisin</t>
   </si>
 </sst>
 </file>
@@ -3336,11 +3336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q165" sqref="Q165"/>
+    <sheetView tabSelected="1" topLeftCell="B211" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3394,22 +3393,22 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3420,19 +3419,19 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I2" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3446,19 +3445,19 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I3" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3472,19 +3471,19 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I4" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3498,19 +3497,19 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I5" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3524,13 +3523,13 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -3539,10 +3538,10 @@
         <v>9</v>
       </c>
       <c r="L6" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3556,19 +3555,19 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I7" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3582,19 +3581,19 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I8" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3608,13 +3607,13 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
@@ -3623,10 +3622,10 @@
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3640,13 +3639,13 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
@@ -3655,10 +3654,10 @@
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3672,19 +3671,19 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I11" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3695,19 +3694,19 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I12" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3718,19 +3717,19 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I13" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3744,19 +3743,19 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I14" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3770,19 +3769,19 @@
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I15" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3796,13 +3795,13 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I16" t="s">
         <v>9</v>
@@ -3811,10 +3810,10 @@
         <v>9</v>
       </c>
       <c r="M16" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3828,19 +3827,19 @@
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I17" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3854,19 +3853,19 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I18" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3877,19 +3876,19 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I19" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3903,19 +3902,19 @@
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I20" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3929,19 +3928,19 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I21" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3955,19 +3954,19 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I22" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3981,19 +3980,19 @@
         <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I23" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4007,19 +4006,19 @@
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I24" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4033,19 +4032,19 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I25" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4056,19 +4055,19 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I26" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4082,19 +4081,19 @@
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I27" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4108,19 +4107,19 @@
         <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I28" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4134,19 +4133,19 @@
         <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I29" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4154,22 +4153,22 @@
         <v>43187</v>
       </c>
       <c r="D30" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I30" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4183,19 +4182,19 @@
         <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I31" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4209,19 +4208,19 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I32" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4232,19 +4231,19 @@
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I33" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4258,19 +4257,19 @@
         <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I34" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4284,13 +4283,13 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I35" t="s">
         <v>9</v>
@@ -4299,10 +4298,10 @@
         <v>9</v>
       </c>
       <c r="M35" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4316,13 +4315,13 @@
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I36" t="s">
         <v>9</v>
@@ -4331,10 +4330,10 @@
         <v>9</v>
       </c>
       <c r="L36" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4345,19 +4344,19 @@
         <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I37" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4365,22 +4364,22 @@
         <v>43201</v>
       </c>
       <c r="D38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I38" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4394,19 +4393,19 @@
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I39" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4417,22 +4416,22 @@
         <v>43204</v>
       </c>
       <c r="D40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I40" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4446,19 +4445,19 @@
         <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G41" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I41" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4472,19 +4471,19 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I42" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4498,19 +4497,19 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I43" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4521,19 +4520,19 @@
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I44" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4547,19 +4546,19 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I45" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4573,13 +4572,13 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I46" t="s">
         <v>9</v>
@@ -4588,10 +4587,10 @@
         <v>9</v>
       </c>
       <c r="M46" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4605,19 +4604,19 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I47" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4631,19 +4630,19 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I48" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4657,19 +4656,19 @@
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I49" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4683,13 +4682,13 @@
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I50" t="s">
         <v>9</v>
@@ -4698,10 +4697,10 @@
         <v>9</v>
       </c>
       <c r="M50" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4712,19 +4711,19 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G51" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I51" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4738,22 +4737,22 @@
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I52" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N52">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4767,19 +4766,19 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G53" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I53" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4793,13 +4792,13 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G54" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I54" t="s">
         <v>9</v>
@@ -4808,10 +4807,10 @@
         <v>9</v>
       </c>
       <c r="L54" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4825,19 +4824,19 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G55" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I55" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4851,19 +4850,19 @@
         <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I56" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4877,19 +4876,19 @@
         <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G57" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I57" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4903,19 +4902,19 @@
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G58" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I58" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4929,19 +4928,19 @@
         <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G59" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I59" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4955,19 +4954,19 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G60" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I60" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4981,19 +4980,19 @@
         <v>22</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G61" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I61" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5007,19 +5006,19 @@
         <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G62" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I62" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5030,19 +5029,19 @@
         <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I63" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5056,19 +5055,19 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I64" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5082,19 +5081,19 @@
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I65" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5108,19 +5107,19 @@
         <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G66" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I66" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5131,22 +5130,22 @@
         <v>43241</v>
       </c>
       <c r="D67" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G67" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I67" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5160,19 +5159,19 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G68" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I68" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5186,19 +5185,19 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G69" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I69" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5212,19 +5211,19 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G70" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I70" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5238,19 +5237,19 @@
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G71" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I71" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5264,19 +5263,19 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G72" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I72" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5290,19 +5289,19 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G73" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I73" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5316,19 +5315,19 @@
         <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G74" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I74" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5342,19 +5341,19 @@
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I75" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5368,19 +5367,19 @@
         <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G76" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I76" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5394,19 +5393,19 @@
         <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I77" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5420,19 +5419,19 @@
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G78" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I78" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5443,22 +5442,22 @@
         <v>43262</v>
       </c>
       <c r="D79" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I79" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5469,22 +5468,22 @@
         <v>43263</v>
       </c>
       <c r="D80" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G80" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I80" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5498,19 +5497,19 @@
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I81" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5524,16 +5523,16 @@
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G82" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I82" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N82">
         <v>15</v>
@@ -5545,7 +5544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5559,13 +5558,13 @@
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G83" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I83" t="s">
         <v>9</v>
@@ -5574,10 +5573,10 @@
         <v>9</v>
       </c>
       <c r="L83" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5591,19 +5590,19 @@
         <v>17</v>
       </c>
       <c r="E84" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I84" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5614,19 +5613,19 @@
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I85" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5640,19 +5639,19 @@
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I86" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5663,22 +5662,22 @@
         <v>43273</v>
       </c>
       <c r="D87" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G87" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I87" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5689,19 +5688,19 @@
         <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G88" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I88" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5715,13 +5714,13 @@
         <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G89" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I89" t="s">
         <v>9</v>
@@ -5730,10 +5729,10 @@
         <v>9</v>
       </c>
       <c r="M89" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5747,19 +5746,19 @@
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G90" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I90" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5773,19 +5772,19 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F91" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G91" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I91" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5799,19 +5798,19 @@
         <v>17</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G92" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I92" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5822,19 +5821,19 @@
         <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F93" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G93" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I93" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5845,19 +5844,19 @@
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G94" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I94" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5871,19 +5870,19 @@
         <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F95" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G95" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I95" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5897,19 +5896,19 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G96" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I96" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5923,19 +5922,19 @@
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G97" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I97" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5949,13 +5948,13 @@
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G98" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I98" t="s">
         <v>9</v>
@@ -5964,10 +5963,10 @@
         <v>9</v>
       </c>
       <c r="L98" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5981,19 +5980,19 @@
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I99" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6007,19 +6006,19 @@
         <v>18</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F100" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G100" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I100" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6033,19 +6032,19 @@
         <v>22</v>
       </c>
       <c r="E101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G101" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I101" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6059,13 +6058,13 @@
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G102" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I102" t="s">
         <v>9</v>
@@ -6074,10 +6073,10 @@
         <v>9</v>
       </c>
       <c r="M102" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6091,13 +6090,13 @@
         <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G103" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I103" t="s">
         <v>9</v>
@@ -6106,10 +6105,10 @@
         <v>9</v>
       </c>
       <c r="M103" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6123,19 +6122,19 @@
         <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F104" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G104" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I104" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6149,13 +6148,13 @@
         <v>23</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G105" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I105" t="s">
         <v>9</v>
@@ -6164,10 +6163,10 @@
         <v>9</v>
       </c>
       <c r="L105" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6181,19 +6180,19 @@
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G106" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I106" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6207,13 +6206,13 @@
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G107" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I107" t="s">
         <v>9</v>
@@ -6222,10 +6221,10 @@
         <v>9</v>
       </c>
       <c r="L107" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6239,13 +6238,13 @@
         <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G108" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I108" t="s">
         <v>9</v>
@@ -6254,10 +6253,10 @@
         <v>9</v>
       </c>
       <c r="M108" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6268,19 +6267,19 @@
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G109" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I109" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6291,22 +6290,22 @@
         <v>43342</v>
       </c>
       <c r="D110" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G110" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I110" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6320,19 +6319,19 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G111" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I111" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6343,19 +6342,19 @@
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F112" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G112" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I112" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6369,19 +6368,19 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G113" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I113" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6395,19 +6394,19 @@
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G114" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I114" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6421,13 +6420,13 @@
         <v>13</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F115" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G115" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I115" t="s">
         <v>9</v>
@@ -6436,10 +6435,10 @@
         <v>9</v>
       </c>
       <c r="L115" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6450,19 +6449,19 @@
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F116" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G116" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I116" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6476,19 +6475,19 @@
         <v>23</v>
       </c>
       <c r="E117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G117" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I117" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6502,19 +6501,19 @@
         <v>14</v>
       </c>
       <c r="E118" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G118" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I118" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6528,19 +6527,19 @@
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G119" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I119" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6554,19 +6553,19 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G120" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I120" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6580,19 +6579,19 @@
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G121" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I121" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6603,19 +6602,19 @@
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G122" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I122" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6629,19 +6628,19 @@
         <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G123" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I123" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6655,19 +6654,19 @@
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G124" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I124" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6681,16 +6680,16 @@
         <v>16</v>
       </c>
       <c r="E125" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F125" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G125" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I125" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N125">
         <v>24</v>
@@ -6699,7 +6698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6713,16 +6712,16 @@
         <v>16</v>
       </c>
       <c r="E126" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I126" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6736,19 +6735,19 @@
         <v>13</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G127" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I127" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6756,22 +6755,22 @@
         <v>43390</v>
       </c>
       <c r="D128" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E128" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G128" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I128" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6782,16 +6781,16 @@
         <v>43390</v>
       </c>
       <c r="D129" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G129" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I129" t="s">
         <v>9</v>
@@ -6800,10 +6799,10 @@
         <v>9</v>
       </c>
       <c r="L129" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6814,19 +6813,19 @@
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G130" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I130" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6837,19 +6836,19 @@
         <v>21</v>
       </c>
       <c r="E131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G131" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I131" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6863,13 +6862,13 @@
         <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G132" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I132" t="s">
         <v>9</v>
@@ -6878,10 +6877,10 @@
         <v>9</v>
       </c>
       <c r="L132" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6895,13 +6894,13 @@
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G133" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I133" t="s">
         <v>9</v>
@@ -6910,10 +6909,10 @@
         <v>9</v>
       </c>
       <c r="L133" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6927,19 +6926,19 @@
         <v>22</v>
       </c>
       <c r="E134" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G134" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I134" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6953,19 +6952,19 @@
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G135" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I135" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6979,19 +6978,19 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G136" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I136" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7005,13 +7004,13 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G137" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I137" t="s">
         <v>9</v>
@@ -7020,10 +7019,10 @@
         <v>9</v>
       </c>
       <c r="L137" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7034,19 +7033,19 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F138" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G138" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I138" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7060,19 +7059,19 @@
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G139" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I139" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7086,19 +7085,19 @@
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G140" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I140" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7112,19 +7111,19 @@
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G141" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I141" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7138,19 +7137,19 @@
         <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G142" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I142" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -7164,19 +7163,19 @@
         <v>22</v>
       </c>
       <c r="E143" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G143" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I143" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7190,19 +7189,19 @@
         <v>22</v>
       </c>
       <c r="E144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G144" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I144" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7216,19 +7215,19 @@
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G145" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I145" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7242,19 +7241,19 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G146" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I146" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7268,19 +7267,19 @@
         <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G147" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I147" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7294,19 +7293,19 @@
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G148" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I148" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7320,19 +7319,19 @@
         <v>31</v>
       </c>
       <c r="E149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G149" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I149" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7346,19 +7345,19 @@
         <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F150" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G150" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I150" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7372,19 +7371,19 @@
         <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F151" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G151" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I151" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7398,19 +7397,19 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F152" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G152" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I152" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7424,19 +7423,19 @@
         <v>17</v>
       </c>
       <c r="E153" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F153" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G153" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I153" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7450,19 +7449,19 @@
         <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F154" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G154" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I154" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7476,16 +7475,16 @@
         <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G155" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I155" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -7502,19 +7501,19 @@
         <v>17</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F156" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G156" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H156" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I156" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7531,16 +7530,16 @@
         <v>24</v>
       </c>
       <c r="E157" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F157" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G157" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I157" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7557,16 +7556,16 @@
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G158" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I158" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7583,16 +7582,16 @@
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G159" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I159" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7609,16 +7608,16 @@
         <v>22</v>
       </c>
       <c r="E160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F160" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G160" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I160" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7635,16 +7634,16 @@
         <v>23</v>
       </c>
       <c r="E161" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F161" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G161" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I161" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7661,16 +7660,16 @@
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F162" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G162" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I162" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7687,16 +7686,16 @@
         <v>24</v>
       </c>
       <c r="E163" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F163" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G163" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I163" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7710,16 +7709,16 @@
         <v>25</v>
       </c>
       <c r="E164" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F164" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G164" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I164" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7736,16 +7735,16 @@
         <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F165" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G165" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I165" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7762,16 +7761,16 @@
         <v>24</v>
       </c>
       <c r="E166" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F166" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G166" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I166" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7788,16 +7787,16 @@
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F167" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G167" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I167" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7814,16 +7813,16 @@
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F168" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G168" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I168" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7840,16 +7839,16 @@
         <v>22</v>
       </c>
       <c r="E169" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F169" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G169" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I169" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7866,19 +7865,19 @@
         <v>16</v>
       </c>
       <c r="E170" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F170" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G170" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H170" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I170" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7895,16 +7894,16 @@
         <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F171" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G171" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I171" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7921,16 +7920,16 @@
         <v>22</v>
       </c>
       <c r="E172" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F172" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G172" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I172" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7947,16 +7946,16 @@
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F173" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G173" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I173" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -7973,22 +7972,22 @@
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F174" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G174" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I174" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K174" t="s">
         <v>9</v>
       </c>
       <c r="L174" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8005,16 +8004,16 @@
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F175" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G175" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I175" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -8031,16 +8030,16 @@
         <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F176" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G176" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I176" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8057,16 +8056,16 @@
         <v>24</v>
       </c>
       <c r="E177" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F177" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G177" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I177" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8083,16 +8082,16 @@
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F178" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G178" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I178" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8109,16 +8108,16 @@
         <v>17</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F179" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G179" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I179" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -8135,19 +8134,19 @@
         <v>23</v>
       </c>
       <c r="E180" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F180" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G180" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H180" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I180" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8164,16 +8163,16 @@
         <v>24</v>
       </c>
       <c r="E181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F181" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G181" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I181" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8190,16 +8189,16 @@
         <v>13</v>
       </c>
       <c r="E182" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F182" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G182" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I182" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8216,19 +8215,19 @@
         <v>24</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F183" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G183" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H183" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I183" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8245,19 +8244,19 @@
         <v>23</v>
       </c>
       <c r="E184" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F184" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G184" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H184" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="I184" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8274,16 +8273,16 @@
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F185" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G185" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I185" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8300,16 +8299,16 @@
         <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F186" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G186" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I186" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8326,16 +8325,16 @@
         <v>24</v>
       </c>
       <c r="E187" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F187" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G187" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I187" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8352,16 +8351,16 @@
         <v>22</v>
       </c>
       <c r="E188" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F188" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G188" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I188" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8378,16 +8377,16 @@
         <v>17</v>
       </c>
       <c r="E189" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G189" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I189" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8404,16 +8403,16 @@
         <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G190" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I190" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8427,19 +8426,19 @@
         <v>43533</v>
       </c>
       <c r="D191" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E191" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F191" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G191" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I191" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -8456,16 +8455,16 @@
         <v>23</v>
       </c>
       <c r="E192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F192" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G192" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I192" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8479,16 +8478,16 @@
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F193" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G193" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I193" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8505,16 +8504,16 @@
         <v>24</v>
       </c>
       <c r="E194" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F194" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G194" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I194" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8531,16 +8530,16 @@
         <v>26</v>
       </c>
       <c r="E195" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F195" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G195" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I195" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8557,16 +8556,16 @@
         <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F196" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G196" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I196" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8580,19 +8579,19 @@
         <v>43539</v>
       </c>
       <c r="D197" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E197" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F197" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G197" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I197" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8609,16 +8608,16 @@
         <v>12</v>
       </c>
       <c r="E198" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F198" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G198" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I198" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8632,19 +8631,19 @@
         <v>43543</v>
       </c>
       <c r="D199" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E199" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F199" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G199" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I199" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8661,16 +8660,16 @@
         <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F200" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G200" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I200" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8687,16 +8686,16 @@
         <v>13</v>
       </c>
       <c r="E201" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F201" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G201" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I201" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8713,16 +8712,16 @@
         <v>13</v>
       </c>
       <c r="E202" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G202" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I202" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="203" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8739,16 +8738,16 @@
         <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F203" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G203" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I203" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8765,16 +8764,16 @@
         <v>13</v>
       </c>
       <c r="E204" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F204" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G204" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I204" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8791,16 +8790,16 @@
         <v>12</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F205" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G205" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I205" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J205">
         <v>42000</v>
@@ -8820,16 +8819,16 @@
         <v>23</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G206" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I206" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J206">
         <v>650</v>
@@ -8849,19 +8848,19 @@
         <v>23</v>
       </c>
       <c r="E207" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F207" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G207" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H207" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I207" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N207">
         <v>1</v>
@@ -8887,19 +8886,19 @@
         <v>13</v>
       </c>
       <c r="E208" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F208" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G208" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H208" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I208" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8916,16 +8915,16 @@
         <v>22</v>
       </c>
       <c r="E209" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F209" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G209" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I209" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J209">
         <v>556</v>
@@ -8945,22 +8944,22 @@
         <v>13</v>
       </c>
       <c r="E210" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F210" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G210" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I210" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K210" t="s">
         <v>9</v>
       </c>
       <c r="L210" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -8977,16 +8976,16 @@
         <v>22</v>
       </c>
       <c r="E211" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F211" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G211" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I211" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9003,16 +9002,16 @@
         <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F212" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G212" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I212" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9029,16 +9028,16 @@
         <v>22</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F213" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G213" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I213" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9055,16 +9054,16 @@
         <v>26</v>
       </c>
       <c r="E214" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F214" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G214" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I214" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9081,16 +9080,16 @@
         <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F215" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G215" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I215" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9107,16 +9106,16 @@
         <v>13</v>
       </c>
       <c r="E216" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F216" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G216" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I216" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J216">
         <v>22000</v>
@@ -9136,19 +9135,19 @@
         <v>24</v>
       </c>
       <c r="E217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F217" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G217" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H217" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I217" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9165,16 +9164,16 @@
         <v>18</v>
       </c>
       <c r="E218" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F218" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G218" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I218" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J218">
         <v>200</v>
@@ -9194,16 +9193,16 @@
         <v>24</v>
       </c>
       <c r="E219" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F219" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G219" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I219" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J219">
         <v>50</v>
@@ -9223,19 +9222,19 @@
         <v>13</v>
       </c>
       <c r="E220" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F220" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G220" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H220" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I220" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N220">
         <v>5</v>
@@ -9258,19 +9257,19 @@
         <v>24</v>
       </c>
       <c r="E221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G221" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H221" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I221" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N221">
         <v>6</v>
@@ -9296,16 +9295,16 @@
         <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F222" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G222" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I222" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J222">
         <v>100000</v>
@@ -9325,16 +9324,16 @@
         <v>13</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F223" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G223" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I223" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J223">
         <v>80000</v>
@@ -9354,19 +9353,19 @@
         <v>24</v>
       </c>
       <c r="E224" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F224" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G224" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H224" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I224" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -9383,19 +9382,19 @@
         <v>12</v>
       </c>
       <c r="E225" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F225" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G225" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H225" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I225" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -9412,16 +9411,16 @@
         <v>22</v>
       </c>
       <c r="E226" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F226" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G226" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I226" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J226">
         <v>50</v>
@@ -9441,16 +9440,16 @@
         <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F227" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G227" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I227" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J227">
         <v>200</v>
@@ -9470,16 +9469,16 @@
         <v>24</v>
       </c>
       <c r="E228" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F228" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G228" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I228" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J228">
         <v>3000</v>
@@ -9499,16 +9498,16 @@
         <v>23</v>
       </c>
       <c r="E229" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F229" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G229" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I229" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J229">
         <v>2000</v>
@@ -9528,16 +9527,16 @@
         <v>13</v>
       </c>
       <c r="E230" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F230" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G230" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I230" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J230">
         <v>150</v>
@@ -9557,25 +9556,25 @@
         <v>24</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F231" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G231" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H231" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I231" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K231" t="s">
         <v>9</v>
       </c>
       <c r="L231" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -9592,16 +9591,16 @@
         <v>17</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F232" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G232" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I232" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J232">
         <v>200</v>
@@ -9618,19 +9617,19 @@
         <v>43648</v>
       </c>
       <c r="D233" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E233" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F233" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G233" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I233" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J233">
         <v>500</v>
@@ -9650,16 +9649,16 @@
         <v>23</v>
       </c>
       <c r="E234" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F234" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G234" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I234" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J234">
         <v>800</v>
@@ -9679,16 +9678,16 @@
         <v>24</v>
       </c>
       <c r="E235" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F235" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G235" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I235" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J235">
         <v>50</v>
@@ -9708,16 +9707,16 @@
         <v>23</v>
       </c>
       <c r="E236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F236" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G236" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I236" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J236">
         <v>210</v>
@@ -9737,19 +9736,19 @@
         <v>23</v>
       </c>
       <c r="E237" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F237" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G237" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H237" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I237" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="238" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -9766,16 +9765,16 @@
         <v>16</v>
       </c>
       <c r="E238" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F238" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G238" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I238" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J238">
         <v>250</v>
@@ -9795,16 +9794,16 @@
         <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F239" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G239" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I239" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J239">
         <v>76</v>
@@ -9824,16 +9823,16 @@
         <v>13</v>
       </c>
       <c r="E240" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F240" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G240" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I240" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="241" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9850,16 +9849,16 @@
         <v>24</v>
       </c>
       <c r="E241" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F241" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G241" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I241" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J241">
         <v>61</v>
@@ -9879,13 +9878,13 @@
         <v>12</v>
       </c>
       <c r="E242" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F242" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I242" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9902,13 +9901,13 @@
         <v>23</v>
       </c>
       <c r="E243" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F243" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I243" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9925,16 +9924,16 @@
         <v>26</v>
       </c>
       <c r="E244" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F244" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G244" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I244" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -9951,16 +9950,16 @@
         <v>24</v>
       </c>
       <c r="E245" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F245" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G245" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I245" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J245">
         <v>20</v>
@@ -9980,16 +9979,16 @@
         <v>24</v>
       </c>
       <c r="E246" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F246" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G246" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I246" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J246">
         <v>30</v>
@@ -10009,25 +10008,25 @@
         <v>23</v>
       </c>
       <c r="E247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F247" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G247" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H247" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I247" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K247" t="s">
         <v>9</v>
       </c>
       <c r="L247" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="248" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10044,16 +10043,16 @@
         <v>22</v>
       </c>
       <c r="E248" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F248" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G248" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I248" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10070,16 +10069,16 @@
         <v>24</v>
       </c>
       <c r="E249" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F249" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G249" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I249" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="250" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10096,16 +10095,16 @@
         <v>30</v>
       </c>
       <c r="E250" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F250" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G250" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I250" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10122,19 +10121,19 @@
         <v>12</v>
       </c>
       <c r="E251" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F251" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G251" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H251" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I251" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N251">
         <v>3</v>
@@ -10157,13 +10156,13 @@
         <v>17</v>
       </c>
       <c r="E252" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F252" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I252" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10177,19 +10176,19 @@
         <v>43692</v>
       </c>
       <c r="D253" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E253" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F253" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G253" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I253" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10206,16 +10205,16 @@
         <v>12</v>
       </c>
       <c r="E254" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F254" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G254" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I254" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="255" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10229,16 +10228,16 @@
         <v>22</v>
       </c>
       <c r="E255" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F255" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G255" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I255" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10255,16 +10254,16 @@
         <v>12</v>
       </c>
       <c r="E256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F256" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G256" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I256" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10281,16 +10280,16 @@
         <v>13</v>
       </c>
       <c r="E257" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F257" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G257" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I257" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10304,19 +10303,19 @@
         <v>43707</v>
       </c>
       <c r="D258" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E258" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F258" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G258" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I258" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10333,16 +10332,16 @@
         <v>17</v>
       </c>
       <c r="E259" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F259" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G259" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I259" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="260" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10359,16 +10358,16 @@
         <v>16</v>
       </c>
       <c r="E260" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F260" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G260" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I260" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="261" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10385,22 +10384,22 @@
         <v>26</v>
       </c>
       <c r="E261" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F261" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G261" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I261" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K261" t="s">
         <v>9</v>
       </c>
       <c r="L261" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="N261">
         <v>6</v>
@@ -10423,16 +10422,16 @@
         <v>13</v>
       </c>
       <c r="E262" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F262" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G262" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I262" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="263" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10446,16 +10445,16 @@
         <v>24</v>
       </c>
       <c r="E263" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F263" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G263" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I263" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10469,16 +10468,16 @@
         <v>24</v>
       </c>
       <c r="E264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F264" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G264" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I264" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10492,16 +10491,16 @@
         <v>24</v>
       </c>
       <c r="E265" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F265" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G265" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I265" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="266" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10518,16 +10517,16 @@
         <v>17</v>
       </c>
       <c r="E266" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F266" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G266" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I266" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10544,16 +10543,16 @@
         <v>13</v>
       </c>
       <c r="E267" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F267" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G267" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I267" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="268" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10570,16 +10569,16 @@
         <v>24</v>
       </c>
       <c r="E268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F268" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G268" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I268" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="269" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10596,16 +10595,16 @@
         <v>22</v>
       </c>
       <c r="E269" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F269" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G269" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I269" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="270" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10622,16 +10621,16 @@
         <v>24</v>
       </c>
       <c r="E270" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F270" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G270" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I270" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="271" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10648,22 +10647,22 @@
         <v>13</v>
       </c>
       <c r="E271" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F271" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G271" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I271" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K271" t="s">
         <v>9</v>
       </c>
       <c r="L271" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="272" spans="1:16" ht="15" x14ac:dyDescent="0.25">
@@ -10677,16 +10676,16 @@
         <v>13</v>
       </c>
       <c r="E272" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F272" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G272" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I272" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10703,16 +10702,16 @@
         <v>13</v>
       </c>
       <c r="E273" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F273" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G273" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I273" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10729,16 +10728,16 @@
         <v>13</v>
       </c>
       <c r="E274" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F274" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G274" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I274" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10755,22 +10754,22 @@
         <v>23</v>
       </c>
       <c r="E275" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F275" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G275" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I275" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K275" t="s">
         <v>9</v>
       </c>
       <c r="L275" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10787,16 +10786,16 @@
         <v>13</v>
       </c>
       <c r="E276" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F276" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G276" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I276" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10813,13 +10812,13 @@
         <v>13</v>
       </c>
       <c r="E277" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F277" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I277" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10836,13 +10835,13 @@
         <v>23</v>
       </c>
       <c r="E278" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F278" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I278" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10859,13 +10858,13 @@
         <v>23</v>
       </c>
       <c r="E279" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F279" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I279" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10882,16 +10881,16 @@
         <v>24</v>
       </c>
       <c r="E280" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F280" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G280" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I280" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10908,22 +10907,22 @@
         <v>13</v>
       </c>
       <c r="E281" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F281" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G281" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I281" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K281" t="s">
         <v>9</v>
       </c>
       <c r="L281" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10937,16 +10936,16 @@
         <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F282" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G282" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I282" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10960,16 +10959,16 @@
         <v>13</v>
       </c>
       <c r="E283" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F283" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G283" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I283" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -10983,16 +10982,16 @@
         <v>24</v>
       </c>
       <c r="E284" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F284" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G284" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I284" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -11009,16 +11008,16 @@
         <v>12</v>
       </c>
       <c r="E285" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F285" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G285" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I285" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -11035,16 +11034,16 @@
         <v>13</v>
       </c>
       <c r="E286" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F286" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G286" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I286" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -11061,16 +11060,16 @@
         <v>13</v>
       </c>
       <c r="E287" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F287" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G287" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I287" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -11087,16 +11086,16 @@
         <v>13</v>
       </c>
       <c r="E288" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F288" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G288" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I288" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11113,16 +11112,16 @@
         <v>27</v>
       </c>
       <c r="E289" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F289" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G289" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I289" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -11139,16 +11138,16 @@
         <v>30</v>
       </c>
       <c r="E290" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F290" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G290" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I290" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11165,16 +11164,16 @@
         <v>13</v>
       </c>
       <c r="E291" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F291" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G291" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I291" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11191,16 +11190,16 @@
         <v>27</v>
       </c>
       <c r="E292" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F292" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G292" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I292" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11217,16 +11216,16 @@
         <v>30</v>
       </c>
       <c r="E293" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F293" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G293" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I293" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11243,16 +11242,16 @@
         <v>13</v>
       </c>
       <c r="E294" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F294" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G294" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I294" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11269,16 +11268,16 @@
         <v>16</v>
       </c>
       <c r="E295" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F295" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G295" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I295" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11295,16 +11294,16 @@
         <v>23</v>
       </c>
       <c r="E296" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F296" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G296" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I296" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11321,16 +11320,16 @@
         <v>12</v>
       </c>
       <c r="E297" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F297" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G297" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I297" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11347,16 +11346,16 @@
         <v>22</v>
       </c>
       <c r="E298" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F298" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G298" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I298" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11373,16 +11372,16 @@
         <v>17</v>
       </c>
       <c r="E299" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F299" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G299" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I299" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11399,16 +11398,16 @@
         <v>28</v>
       </c>
       <c r="E300" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F300" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G300" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I300" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11425,16 +11424,16 @@
         <v>13</v>
       </c>
       <c r="E301" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F301" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G301" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I301" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11451,16 +11450,16 @@
         <v>13</v>
       </c>
       <c r="E302" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F302" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G302" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I302" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11477,16 +11476,16 @@
         <v>17</v>
       </c>
       <c r="E303" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F303" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G303" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I303" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11503,16 +11502,16 @@
         <v>13</v>
       </c>
       <c r="E304" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F304" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G304" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I304" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11529,16 +11528,16 @@
         <v>29</v>
       </c>
       <c r="E305" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F305" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G305" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I305" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11555,16 +11554,16 @@
         <v>30</v>
       </c>
       <c r="E306" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F306" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G306" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I306" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11581,16 +11580,16 @@
         <v>17</v>
       </c>
       <c r="E307" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F307" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G307" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I307" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11607,16 +11606,16 @@
         <v>13</v>
       </c>
       <c r="E308" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F308" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G308" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I308" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11633,16 +11632,16 @@
         <v>17</v>
       </c>
       <c r="E309" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F309" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G309" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I309" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11659,16 +11658,16 @@
         <v>21</v>
       </c>
       <c r="E310" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F310" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G310" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I310" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11685,16 +11684,16 @@
         <v>12</v>
       </c>
       <c r="E311" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F311" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G311" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I311" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11711,16 +11710,16 @@
         <v>21</v>
       </c>
       <c r="E312" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F312" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G312" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I312" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11737,16 +11736,16 @@
         <v>13</v>
       </c>
       <c r="E313" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F313" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G313" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I313" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="314" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11763,16 +11762,16 @@
         <v>13</v>
       </c>
       <c r="E314" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F314" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G314" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I314" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="315" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11789,16 +11788,16 @@
         <v>21</v>
       </c>
       <c r="E315" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F315" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G315" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I315" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="316" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11815,16 +11814,16 @@
         <v>21</v>
       </c>
       <c r="E316" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F316" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G316" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="I316" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="317" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11841,16 +11840,16 @@
         <v>23</v>
       </c>
       <c r="E317" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F317" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G317" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I317" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11867,16 +11866,16 @@
         <v>17</v>
       </c>
       <c r="E318" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F318" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G318" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I318" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="319" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11893,16 +11892,16 @@
         <v>13</v>
       </c>
       <c r="E319" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F319" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G319" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I319" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="320" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11919,16 +11918,16 @@
         <v>13</v>
       </c>
       <c r="E320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F320" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G320" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I320" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="321" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11945,13 +11944,13 @@
         <v>22</v>
       </c>
       <c r="E321" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F321" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G321" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="322" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11968,13 +11967,13 @@
         <v>22</v>
       </c>
       <c r="E322" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F322" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G322" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="323" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -11991,16 +11990,16 @@
         <v>17</v>
       </c>
       <c r="E323" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F323" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G323" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I323" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="324" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12017,16 +12016,16 @@
         <v>23</v>
       </c>
       <c r="E324" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F324" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G324" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I324" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="325" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12043,16 +12042,16 @@
         <v>13</v>
       </c>
       <c r="E325" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F325" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G325" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I325" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="326" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12069,16 +12068,16 @@
         <v>17</v>
       </c>
       <c r="E326" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F326" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G326" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I326" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12095,16 +12094,16 @@
         <v>12</v>
       </c>
       <c r="E327" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F327" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G327" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I327" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12121,16 +12120,16 @@
         <v>13</v>
       </c>
       <c r="E328" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F328" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G328" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I328" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="329" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12147,16 +12146,16 @@
         <v>21</v>
       </c>
       <c r="E329" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F329" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G329" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I329" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="330" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12173,16 +12172,16 @@
         <v>22</v>
       </c>
       <c r="E330" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F330" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G330" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I330" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12199,16 +12198,16 @@
         <v>13</v>
       </c>
       <c r="E331" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F331" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G331" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I331" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12225,16 +12224,16 @@
         <v>28</v>
       </c>
       <c r="E332" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F332" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G332" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I332" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="333" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12251,16 +12250,16 @@
         <v>30</v>
       </c>
       <c r="E333" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F333" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G333" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I333" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="334" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12277,16 +12276,16 @@
         <v>22</v>
       </c>
       <c r="E334" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F334" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G334" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I334" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -12303,16 +12302,16 @@
         <v>30</v>
       </c>
       <c r="E335" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F335" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G335" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I335" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="336" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12329,16 +12328,16 @@
         <v>27</v>
       </c>
       <c r="E336" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F336" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G336" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="I336" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12355,16 +12354,16 @@
         <v>13</v>
       </c>
       <c r="E337" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F337" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G337" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I337" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="338" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12381,16 +12380,16 @@
         <v>28</v>
       </c>
       <c r="E338" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F338" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G338" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I338" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="339" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12407,16 +12406,16 @@
         <v>13</v>
       </c>
       <c r="E339" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F339" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G339" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I339" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="340" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12430,16 +12429,16 @@
         <v>22</v>
       </c>
       <c r="E340" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F340" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G340" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I340" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="341" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12456,16 +12455,16 @@
         <v>27</v>
       </c>
       <c r="E341" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F341" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G341" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="I341" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="342" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12482,16 +12481,16 @@
         <v>31</v>
       </c>
       <c r="E342" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F342" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G342" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I342" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="343" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -12508,16 +12507,16 @@
         <v>13</v>
       </c>
       <c r="E343" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F343" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G343" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I343" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N343">
         <v>12</v>
@@ -12537,16 +12536,16 @@
         <v>21</v>
       </c>
       <c r="E344" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F344" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G344" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I344" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="345" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12563,16 +12562,16 @@
         <v>23</v>
       </c>
       <c r="E345" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F345" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G345" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I345" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="346" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12589,16 +12588,16 @@
         <v>21</v>
       </c>
       <c r="E346" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F346" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G346" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I346" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="347" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12615,16 +12614,16 @@
         <v>13</v>
       </c>
       <c r="E347" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F347" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G347" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I347" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="348" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12641,16 +12640,16 @@
         <v>13</v>
       </c>
       <c r="E348" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F348" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G348" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I348" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="349" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12667,16 +12666,16 @@
         <v>27</v>
       </c>
       <c r="E349" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F349" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G349" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I349" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="350" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12693,16 +12692,16 @@
         <v>22</v>
       </c>
       <c r="E350" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F350" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G350" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I350" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="351" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12719,16 +12718,16 @@
         <v>22</v>
       </c>
       <c r="E351" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F351" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G351" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I351" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="352" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -12742,19 +12741,19 @@
         <v>43824</v>
       </c>
       <c r="D352" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E352" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F352" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G352" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I352" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12768,16 +12767,16 @@
         <v>22</v>
       </c>
       <c r="E353" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F353" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G353" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I353" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12794,16 +12793,16 @@
         <v>27</v>
       </c>
       <c r="E354" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F354" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G354" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I354" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12820,16 +12819,16 @@
         <v>23</v>
       </c>
       <c r="E355" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F355" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G355" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I355" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12846,16 +12845,16 @@
         <v>17</v>
       </c>
       <c r="E356" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F356" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G356" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I356" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12872,16 +12871,16 @@
         <v>17</v>
       </c>
       <c r="E357" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F357" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G357" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I357" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -12898,19 +12897,19 @@
         <v>13</v>
       </c>
       <c r="E358" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F358" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G358" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I358" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -12924,19 +12923,19 @@
         <v>22</v>
       </c>
       <c r="E359" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F359" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G359" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I359" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -12950,19 +12949,19 @@
         <v>23</v>
       </c>
       <c r="E360" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F360" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G360" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I360" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -12976,19 +12975,19 @@
         <v>21</v>
       </c>
       <c r="E361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F361" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G361" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I361" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -13002,19 +13001,19 @@
         <v>27</v>
       </c>
       <c r="E362" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F362" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G362" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I362" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -13028,19 +13027,19 @@
         <v>23</v>
       </c>
       <c r="E363" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F363" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G363" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I363" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -13054,19 +13053,19 @@
         <v>27</v>
       </c>
       <c r="E364" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F364" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G364" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I364" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -13080,19 +13079,19 @@
         <v>17</v>
       </c>
       <c r="E365" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F365" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G365" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I365" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -13106,19 +13105,19 @@
         <v>26</v>
       </c>
       <c r="E366" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F366" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G366" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I366" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -13132,19 +13131,19 @@
         <v>13</v>
       </c>
       <c r="E367" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F367" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G367" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I367" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -13158,19 +13157,19 @@
         <v>23</v>
       </c>
       <c r="E368" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F368" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G368" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I368" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -13184,19 +13183,19 @@
         <v>27</v>
       </c>
       <c r="E369" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F369" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G369" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I369" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -13210,19 +13209,19 @@
         <v>21</v>
       </c>
       <c r="E370" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F370" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G370" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I370" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -13236,19 +13235,19 @@
         <v>27</v>
       </c>
       <c r="E371" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F371" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G371" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I371" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -13262,22 +13261,22 @@
         <v>27</v>
       </c>
       <c r="E372" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F372" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G372" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H372" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I372" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -13291,22 +13290,22 @@
         <v>21</v>
       </c>
       <c r="E373" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F373" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G373" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I373" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="P373">
         <v>3</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -13320,19 +13319,19 @@
         <v>21</v>
       </c>
       <c r="E374" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F374" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G374" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I374" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -13346,22 +13345,22 @@
         <v>17</v>
       </c>
       <c r="E375" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F375" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G375" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H375" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I375" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -13375,22 +13374,22 @@
         <v>23</v>
       </c>
       <c r="E376" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F376" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G376" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H376" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I376" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -13404,25 +13403,25 @@
         <v>13</v>
       </c>
       <c r="E377" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F377" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G377" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H377" t="s">
+        <v>882</v>
+      </c>
+      <c r="I377" t="s">
         <v>883</v>
-      </c>
-      <c r="I377" t="s">
-        <v>884</v>
       </c>
       <c r="O377">
         <v>19</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -13436,19 +13435,19 @@
         <v>25</v>
       </c>
       <c r="E378" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F378" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G378" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I378" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -13462,19 +13461,19 @@
         <v>21</v>
       </c>
       <c r="E379" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F379" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G379" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I379" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -13488,19 +13487,19 @@
         <v>23</v>
       </c>
       <c r="E380" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F380" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G380" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I380" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -13511,22 +13510,22 @@
         <v>43857</v>
       </c>
       <c r="D381" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E381" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F381" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G381" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I381" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -13540,19 +13539,19 @@
         <v>17</v>
       </c>
       <c r="E382" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F382" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G382" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I382" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -13566,19 +13565,19 @@
         <v>21</v>
       </c>
       <c r="E383" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F383" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G383" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I383" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -13592,22 +13591,22 @@
         <v>13</v>
       </c>
       <c r="E384" t="s">
-        <v>32</v>
+        <v>902</v>
       </c>
       <c r="F384" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G384" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I384" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P384">
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -13618,19 +13617,19 @@
         <v>21</v>
       </c>
       <c r="E385" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F385" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G385" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I385" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -13644,19 +13643,19 @@
         <v>22</v>
       </c>
       <c r="E386" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F386" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G386" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I386" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -13670,19 +13669,19 @@
         <v>13</v>
       </c>
       <c r="E387" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F387" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G387" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I387" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" ht="15" hidden="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -13696,26 +13695,20 @@
         <v>23</v>
       </c>
       <c r="E388" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F388" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G388" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I388" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P388" xr:uid="{094B34F7-65BA-4441-A1C8-388ED844DD47}">
-    <filterColumn colId="2">
-      <filters>
-        <dateGroupItem year="2019" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P388" xr:uid="{094B34F7-65BA-4441-A1C8-388ED844DD47}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>